--- a/HourRegistration_B04.xlsx
+++ b/HourRegistration_B04.xlsx
@@ -543,7 +543,7 @@
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,22 +684,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="13">
         <v>0</v>
@@ -1284,31 +1284,31 @@
       </c>
       <c r="D37" s="6">
         <f>SUM(D5:D35)</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" ref="E37:I37" si="0">SUM(E5:E35)</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J37" s="6">
         <f>AVERAGE(D37:I37)</f>
-        <v>51.833333333333336</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
   </sheetData>
